--- a/data/nzd0337/nzd0337.xlsx
+++ b/data/nzd0337/nzd0337.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I413"/>
+  <dimension ref="A1:I423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12244,6 +12244,334 @@
         <v>409.0161538461539</v>
       </c>
       <c r="I413" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>404.2366666666667</v>
+      </c>
+      <c r="C414" t="n">
+        <v>387.7233333333334</v>
+      </c>
+      <c r="D414" t="n">
+        <v>379.4133333333334</v>
+      </c>
+      <c r="E414" t="n">
+        <v>371.8047058823529</v>
+      </c>
+      <c r="F414" t="n">
+        <v>369.885</v>
+      </c>
+      <c r="G414" t="n">
+        <v>372.885</v>
+      </c>
+      <c r="H414" t="n">
+        <v>379.5284615384616</v>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:30+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>376.9233333333333</v>
+      </c>
+      <c r="C415" t="n">
+        <v>362.4666666666667</v>
+      </c>
+      <c r="D415" t="n">
+        <v>360.9066666666667</v>
+      </c>
+      <c r="E415" t="n">
+        <v>361.7794117647059</v>
+      </c>
+      <c r="F415" t="n">
+        <v>367.97</v>
+      </c>
+      <c r="G415" t="n">
+        <v>373.26</v>
+      </c>
+      <c r="H415" t="n">
+        <v>382.9023076923077</v>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr"/>
+      <c r="C416" t="n">
+        <v>377.01</v>
+      </c>
+      <c r="D416" t="n">
+        <v>369.46</v>
+      </c>
+      <c r="E416" t="n">
+        <v>375.5535294117647</v>
+      </c>
+      <c r="F416" t="n">
+        <v>384.61</v>
+      </c>
+      <c r="G416" t="n">
+        <v>397.86</v>
+      </c>
+      <c r="H416" t="n">
+        <v>410.8946153846153</v>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:13+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>387.2733333333333</v>
+      </c>
+      <c r="C417" t="n">
+        <v>371.2466666666666</v>
+      </c>
+      <c r="D417" t="n">
+        <v>365.7966666666667</v>
+      </c>
+      <c r="E417" t="n">
+        <v>367.4788235294118</v>
+      </c>
+      <c r="F417" t="n">
+        <v>371.07</v>
+      </c>
+      <c r="G417" t="n">
+        <v>373.89</v>
+      </c>
+      <c r="H417" t="n">
+        <v>386.6176923076923</v>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>392.5233333333333</v>
+      </c>
+      <c r="C418" t="n">
+        <v>374.7966666666667</v>
+      </c>
+      <c r="D418" t="n">
+        <v>369.5166666666667</v>
+      </c>
+      <c r="E418" t="n">
+        <v>369.0188235294117</v>
+      </c>
+      <c r="F418" t="n">
+        <v>372.92</v>
+      </c>
+      <c r="G418" t="n">
+        <v>376.89</v>
+      </c>
+      <c r="H418" t="n">
+        <v>389.2476923076923</v>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>377.65</v>
+      </c>
+      <c r="C419" t="n">
+        <v>364.23</v>
+      </c>
+      <c r="D419" t="n">
+        <v>367.02</v>
+      </c>
+      <c r="E419" t="n">
+        <v>366.1229411764706</v>
+      </c>
+      <c r="F419" t="n">
+        <v>359.125</v>
+      </c>
+      <c r="G419" t="n">
+        <v>372.535</v>
+      </c>
+      <c r="H419" t="n">
+        <v>390.6292307692308</v>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:19:22+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>409.4366666666667</v>
+      </c>
+      <c r="C420" t="n">
+        <v>386.7933333333333</v>
+      </c>
+      <c r="D420" t="n">
+        <v>382.0433333333333</v>
+      </c>
+      <c r="E420" t="n">
+        <v>386.5594117647058</v>
+      </c>
+      <c r="F420" t="n">
+        <v>383.185</v>
+      </c>
+      <c r="G420" t="n">
+        <v>391.005</v>
+      </c>
+      <c r="H420" t="n">
+        <v>405.4423076923077</v>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:00+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>415.15</v>
+      </c>
+      <c r="C421" t="n">
+        <v>388.31</v>
+      </c>
+      <c r="D421" t="n">
+        <v>389.65</v>
+      </c>
+      <c r="E421" t="n">
+        <v>383.2105882352942</v>
+      </c>
+      <c r="F421" t="n">
+        <v>393.65</v>
+      </c>
+      <c r="G421" t="n">
+        <v>394</v>
+      </c>
+      <c r="H421" t="n">
+        <v>410.8769230769231</v>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:13:33+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>381.95</v>
+      </c>
+      <c r="C422" t="n">
+        <v>373.05</v>
+      </c>
+      <c r="D422" t="n">
+        <v>363.24</v>
+      </c>
+      <c r="E422" t="n">
+        <v>364.9264705882353</v>
+      </c>
+      <c r="F422" t="n">
+        <v>366.76</v>
+      </c>
+      <c r="G422" t="n">
+        <v>376.08</v>
+      </c>
+      <c r="H422" t="n">
+        <v>381.7376923076923</v>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>402.33</v>
+      </c>
+      <c r="C423" t="n">
+        <v>384.53</v>
+      </c>
+      <c r="D423" t="n">
+        <v>379.45</v>
+      </c>
+      <c r="E423" t="n">
+        <v>378.5305882352941</v>
+      </c>
+      <c r="F423" t="n">
+        <v>382.645</v>
+      </c>
+      <c r="G423" t="n">
+        <v>387.685</v>
+      </c>
+      <c r="H423" t="n">
+        <v>393.8330769230769</v>
+      </c>
+      <c r="I423" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12260,7 +12588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B497"/>
+  <dimension ref="A1:B507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17238,6 +17566,106 @@
       </c>
       <c r="B497" t="n">
         <v>0.38</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>-1.06</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>-0.99</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>
@@ -17406,28 +17834,28 @@
         <v>0.0736</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6782778455282129</v>
+        <v>0.6768161023227471</v>
       </c>
       <c r="J2" t="n">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="K2" t="n">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1097425241059866</v>
+        <v>0.1119311489788523</v>
       </c>
       <c r="M2" t="n">
-        <v>12.09000181928984</v>
+        <v>12.08993624025298</v>
       </c>
       <c r="N2" t="n">
-        <v>223.6515612410141</v>
+        <v>222.3389688541131</v>
       </c>
       <c r="O2" t="n">
-        <v>14.95498449484365</v>
+        <v>14.91103513690827</v>
       </c>
       <c r="P2" t="n">
-        <v>377.217805941752</v>
+        <v>377.2309752019602</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -17483,28 +17911,28 @@
         <v>0.0924</v>
       </c>
       <c r="I3" t="n">
-        <v>1.092869814705003</v>
+        <v>1.076433970315963</v>
       </c>
       <c r="J3" t="n">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="K3" t="n">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2686988992882557</v>
+        <v>0.2706805149896369</v>
       </c>
       <c r="M3" t="n">
-        <v>10.85984883789696</v>
+        <v>10.7726697304495</v>
       </c>
       <c r="N3" t="n">
-        <v>184.1687094759846</v>
+        <v>180.9874770863617</v>
       </c>
       <c r="O3" t="n">
-        <v>13.57087725521031</v>
+        <v>13.45315862860324</v>
       </c>
       <c r="P3" t="n">
-        <v>352.144454503319</v>
+        <v>352.3053114514644</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -17560,28 +17988,28 @@
         <v>0.09710000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>1.2285549993746</v>
+        <v>1.224848835259486</v>
       </c>
       <c r="J4" t="n">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="K4" t="n">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3332222393829928</v>
+        <v>0.3416865710457748</v>
       </c>
       <c r="M4" t="n">
-        <v>10.10214450589847</v>
+        <v>10.03244000031029</v>
       </c>
       <c r="N4" t="n">
-        <v>166.8804085853272</v>
+        <v>163.8757007806976</v>
       </c>
       <c r="O4" t="n">
-        <v>12.91822002387818</v>
+        <v>12.80139448578543</v>
       </c>
       <c r="P4" t="n">
-        <v>342.0242290898593</v>
+        <v>342.0604468829792</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -17637,28 +18065,28 @@
         <v>0.106</v>
       </c>
       <c r="I5" t="n">
-        <v>1.193697654059295</v>
+        <v>1.201997372732118</v>
       </c>
       <c r="J5" t="n">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="K5" t="n">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3244650933631859</v>
+        <v>0.3383127845486922</v>
       </c>
       <c r="M5" t="n">
-        <v>9.698947500427899</v>
+        <v>9.594927249086453</v>
       </c>
       <c r="N5" t="n">
-        <v>161.3349361418732</v>
+        <v>157.9507936525244</v>
       </c>
       <c r="O5" t="n">
-        <v>12.70176901623837</v>
+        <v>12.56784761415113</v>
       </c>
       <c r="P5" t="n">
-        <v>340.7393909108659</v>
+        <v>340.6560782791227</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -17714,28 +18142,28 @@
         <v>0.1013</v>
       </c>
       <c r="I6" t="n">
-        <v>1.138716328538286</v>
+        <v>1.177963251217194</v>
       </c>
       <c r="J6" t="n">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="K6" t="n">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2482794351010613</v>
+        <v>0.2691937015570814</v>
       </c>
       <c r="M6" t="n">
-        <v>10.86044134131312</v>
+        <v>10.7882297148899</v>
       </c>
       <c r="N6" t="n">
-        <v>222.9164000629568</v>
+        <v>219.85670267565</v>
       </c>
       <c r="O6" t="n">
-        <v>14.93038512775062</v>
+        <v>14.82756563551988</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6638455823849</v>
+        <v>339.2841924065093</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -17791,28 +18219,28 @@
         <v>0.1016</v>
       </c>
       <c r="I7" t="n">
-        <v>1.122951687597806</v>
+        <v>1.209351687491637</v>
       </c>
       <c r="J7" t="n">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="K7" t="n">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2233008214590516</v>
+        <v>0.2557947958288846</v>
       </c>
       <c r="M7" t="n">
-        <v>11.60277516378043</v>
+        <v>11.59381337192938</v>
       </c>
       <c r="N7" t="n">
-        <v>240.8442996081328</v>
+        <v>240.6257442102325</v>
       </c>
       <c r="O7" t="n">
-        <v>15.51915911408002</v>
+        <v>15.51211604553784</v>
       </c>
       <c r="P7" t="n">
-        <v>340.1971145892084</v>
+        <v>339.3362995095904</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -17868,28 +18296,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>2.345075061174618</v>
+        <v>2.785706823647065</v>
       </c>
       <c r="J8" t="n">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="K8" t="n">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02075330180387169</v>
+        <v>0.03017059625861629</v>
       </c>
       <c r="M8" t="n">
-        <v>115.3627825985365</v>
+        <v>112.9874092207715</v>
       </c>
       <c r="N8" t="n">
-        <v>15550.12744154413</v>
+        <v>15275.1569898735</v>
       </c>
       <c r="O8" t="n">
-        <v>124.7001501263897</v>
+        <v>123.5927060544978</v>
       </c>
       <c r="P8" t="n">
-        <v>247.62198679108</v>
+        <v>243.4927410693121</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -17926,7 +18354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I413"/>
+  <dimension ref="A1:I423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33685,6 +34113,472 @@
         </is>
       </c>
     </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>-41.0670706063,172.1042813753603</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>-41.0663792293854,172.10433060661558</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>-41.06569925673018,172.10428337403798</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>-41.065020252971166,172.10422789238942</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>-41.06434915590662,172.1041055164572</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>-41.06368489544204,172.10392529290002</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>-41.06302569615135,172.10370222969766</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:30+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>-41.06703261262322,172.10460254889307</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>-41.06634409634376,172.1046275929489</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>-41.065673513262354,172.10450098672314</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>-41.065006307457764,172.10434577472404</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>-41.064346492100384,172.10412803374513</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>-41.063685417069955,172.10392088355275</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>-41.063030389135065,172.10366255952297</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr"/>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>-41.0663643268007,172.10445658185057</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>-41.06568541132131,172.10440041142812</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>-41.06502546767672,172.10418381186796</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>-41.064369638551014,172.10393237432874</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>-41.063719635491516,172.1036316302269</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>-41.06306932560485,172.1033334216821</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:13+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>-41.0670470098936,172.104480844783</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>-41.066356309764956,172.10452435133058</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>-41.065680315475994,172.10444348713355</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>-41.0650142355416,172.1042787582457</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>-41.064350804264905,172.1040915827821</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>-41.063686293404494,172.1039134758492</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>-41.06303555717921,172.10361887348307</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>-41.06705431280748,172.1044191107947</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>-41.066361247966945,172.1044826078413</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>-41.06568549014681,172.10439974510686</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>-41.06501637772946,172.10426065016787</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>-41.064353377647905,172.10406982978583</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>-41.06369046641951,172.10387820106786</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>-41.06303921545963,172.10358794955147</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>-41.06703362345028,172.1045940041295</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>-41.0663465492365,172.10460685839752</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>-41.0656820171841,172.10442910243552</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>-41.06501234946471,172.10429470137666</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>-41.064334188457565,172.1042320365485</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>-41.06368440858916,172.10392940829072</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>-41.06304113715026,172.10357170521522</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:19:22+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>-41.067077839556134,172.1042202292729</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>-41.066377935731545,172.10434154224018</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>-41.06570291512538,172.10425244887915</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>-41.06504077703134,172.1040543992205</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>-41.06436765637105,172.1039491300231</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>-41.06371010030955,172.10371223316426</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>-41.06306174168063,172.10339753078014</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:00+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>-41.067085786826894,172.10415304695442</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>-41.06638004545324,172.1043237081568</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>-41.06571349614034,172.10416300499193</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>-41.06503611878085,172.1040937763619</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>-41.06438221316555,172.10382607853302</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>-41.06371426630778,172.10367701714986</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>-41.063069300995664,172.10333362971107</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:13:33+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>-41.06703960493685,172.104543441074</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>-41.066358818280726,172.1045031464227</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>-41.06567675903932,172.10447354997422</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>-41.065010685133,172.10430877006505</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>-41.06434480896203,172.10414226137786</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>-41.06368933970652,172.10388772525926</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>-41.06302876916914,172.103676253241</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>-41.06706795409791,172.10430379558912</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>-41.066374787372446,172.10436815617794</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>-41.06569930773448,172.10428294288877</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>-41.06502960882655,172.1041488061329</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>-41.06436690522853,172.10395547954911</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>-41.063705482228784,172.10375127061093</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>-41.06304559362327,172.10353403390857</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0337/nzd0337.xlsx
+++ b/data/nzd0337/nzd0337.xlsx
@@ -17679,7 +17679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17770,35 +17770,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -17857,27 +17862,28 @@
       <c r="P2" t="n">
         <v>377.2309752019602</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (172.1090346996371 -41.06650820897731, 172.09842966505596 -41.067762677846034)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>172.1090346996371</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-41.06650820897731</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>172.098429665056</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-41.06776267784603</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>172.1037321823465</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-41.06713544341167</v>
       </c>
     </row>
@@ -17934,27 +17940,28 @@
       <c r="P3" t="n">
         <v>352.3053114514644</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (172.10888970738992 -41.06583980589441, 172.09828474281053 -41.067094271137826)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>172.1088897073899</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-41.06583980589441</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>172.0982847428105</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-41.06709427113783</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>172.1035872251002</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-41.06646703851612</v>
       </c>
     </row>
@@ -18011,27 +18018,28 @@
       <c r="P4" t="n">
         <v>342.0604468829792</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (172.10874471514325 -41.06517139601726, 172.09813982056414 -41.06642585763561)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>172.1087447151432</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-41.06517139601726</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>172.0981398205641</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-41.06642585763561</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>172.1034422678537</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-41.06579862682644</v>
       </c>
     </row>
@@ -18088,27 +18096,28 @@
       <c r="P5" t="n">
         <v>340.6560782791227</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (172.1085997228971 -41.06450297934591, 172.0979948983167 -41.0657574373393)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>172.1085997228971</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-41.06450297934591</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>172.0979948983167</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-41.0657574373393</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>172.1032973106069</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-41.06513020834261</v>
       </c>
     </row>
@@ -18165,27 +18174,28 @@
       <c r="P6" t="n">
         <v>339.2841924065093</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (172.1084547306515 -41.063834555880284, 172.09784997606818 -41.065089010249096)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>172.1084547306515</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-41.06383455588028</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>172.0978499760682</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-41.0650890102491</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>172.1031523533598</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-41.06446178306469</v>
       </c>
     </row>
@@ -18242,27 +18252,28 @@
       <c r="P7" t="n">
         <v>339.3362995095904</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (172.10830973840635 -41.06316612562058, 172.09770505381857 -41.0644205763647)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>172.1083097384063</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-41.06316612562058</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>172.0977050538186</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-41.0644205763647</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>172.1030073961124</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-41.06379335099264</v>
       </c>
     </row>
@@ -18319,27 +18330,28 @@
       <c r="P8" t="n">
         <v>243.4927410693121</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (172.10816474616183 -41.062497688566765, 172.097560131568 -41.06375213568629)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>172.1081647461618</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-41.06249768856676</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>172.097560131568</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-41.06375213568629</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>172.1028624388649</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-41.06312491212653</v>
       </c>
     </row>

--- a/data/nzd0337/nzd0337.xlsx
+++ b/data/nzd0337/nzd0337.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I423"/>
+  <dimension ref="A1:I428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12574,6 +12574,165 @@
       <c r="I423" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:02+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>394.9533333333333</v>
+      </c>
+      <c r="C424" t="n">
+        <v>368.4966666666666</v>
+      </c>
+      <c r="D424" t="n">
+        <v>371.1566666666666</v>
+      </c>
+      <c r="E424" t="n">
+        <v>374.2288235294118</v>
+      </c>
+      <c r="F424" t="n">
+        <v>373.67</v>
+      </c>
+      <c r="G424" t="n">
+        <v>377.09</v>
+      </c>
+      <c r="H424" t="n">
+        <v>383.61</v>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:12:42+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>384.1933333333333</v>
+      </c>
+      <c r="C425" t="n">
+        <v>367.4566666666666</v>
+      </c>
+      <c r="D425" t="n">
+        <v>353.8466666666666</v>
+      </c>
+      <c r="E425" t="n">
+        <v>345.4752941176471</v>
+      </c>
+      <c r="F425" t="n">
+        <v>348.56</v>
+      </c>
+      <c r="G425" t="n">
+        <v>347.95</v>
+      </c>
+      <c r="H425" t="inlineStr"/>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:18:51+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>405.3066666666667</v>
+      </c>
+      <c r="C426" t="n">
+        <v>385.9633333333333</v>
+      </c>
+      <c r="D426" t="n">
+        <v>374.8233333333333</v>
+      </c>
+      <c r="E426" t="n">
+        <v>374.9070588235294</v>
+      </c>
+      <c r="F426" t="n">
+        <v>374.815</v>
+      </c>
+      <c r="G426" t="n">
+        <v>376.345</v>
+      </c>
+      <c r="H426" t="n">
+        <v>384.2492307692308</v>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>406.8533333333333</v>
+      </c>
+      <c r="C427" t="n">
+        <v>391.3166666666667</v>
+      </c>
+      <c r="D427" t="n">
+        <v>383.4366666666667</v>
+      </c>
+      <c r="E427" t="n">
+        <v>382.3394117647059</v>
+      </c>
+      <c r="F427" t="n">
+        <v>382.59</v>
+      </c>
+      <c r="G427" t="n">
+        <v>382.85</v>
+      </c>
+      <c r="H427" t="n">
+        <v>373.2069230769231</v>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:18:46+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>414.35</v>
+      </c>
+      <c r="C428" t="n">
+        <v>393.49</v>
+      </c>
+      <c r="D428" t="n">
+        <v>381.59</v>
+      </c>
+      <c r="E428" t="n">
+        <v>378.9547058823529</v>
+      </c>
+      <c r="F428" t="n">
+        <v>376.245</v>
+      </c>
+      <c r="G428" t="inlineStr"/>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -12588,7 +12747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B507"/>
+  <dimension ref="A1:B512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17666,6 +17825,56 @@
       </c>
       <c r="B507" t="n">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>
@@ -17839,28 +18048,28 @@
         <v>0.0736</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6768161023227471</v>
+        <v>0.6938456361583625</v>
       </c>
       <c r="J2" t="n">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K2" t="n">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1119311489788523</v>
+        <v>0.1185740656898563</v>
       </c>
       <c r="M2" t="n">
-        <v>12.08993624025298</v>
+        <v>12.08348892830026</v>
       </c>
       <c r="N2" t="n">
-        <v>222.3389688541131</v>
+        <v>221.1967984591639</v>
       </c>
       <c r="O2" t="n">
-        <v>14.91103513690827</v>
+        <v>14.87268632289285</v>
       </c>
       <c r="P2" t="n">
-        <v>377.2309752019602</v>
+        <v>377.0698908527988</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17917,28 +18126,28 @@
         <v>0.0924</v>
       </c>
       <c r="I3" t="n">
-        <v>1.076433970315963</v>
+        <v>1.080544161880316</v>
       </c>
       <c r="J3" t="n">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K3" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2706805149896369</v>
+        <v>0.2751994729361051</v>
       </c>
       <c r="M3" t="n">
-        <v>10.7726697304495</v>
+        <v>10.77675947005604</v>
       </c>
       <c r="N3" t="n">
-        <v>180.9874770863617</v>
+        <v>180.086486558073</v>
       </c>
       <c r="O3" t="n">
-        <v>13.45315862860324</v>
+        <v>13.41963064164111</v>
       </c>
       <c r="P3" t="n">
-        <v>352.3053114514644</v>
+        <v>352.2641298402884</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17995,28 +18204,28 @@
         <v>0.09710000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>1.224848835259486</v>
+        <v>1.223625113637365</v>
       </c>
       <c r="J4" t="n">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K4" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3416865710457748</v>
+        <v>0.3450297178409837</v>
       </c>
       <c r="M4" t="n">
-        <v>10.03244000031029</v>
+        <v>10.00223936572872</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8757007806976</v>
+        <v>162.9830601095133</v>
       </c>
       <c r="O4" t="n">
-        <v>12.80139448578543</v>
+        <v>12.76648190025401</v>
       </c>
       <c r="P4" t="n">
-        <v>342.0604468829792</v>
+        <v>342.0723908084289</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18073,28 +18282,28 @@
         <v>0.106</v>
       </c>
       <c r="I5" t="n">
-        <v>1.201997372732118</v>
+        <v>1.201325207721047</v>
       </c>
       <c r="J5" t="n">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K5" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3383127845486922</v>
+        <v>0.3404143918318541</v>
       </c>
       <c r="M5" t="n">
-        <v>9.594927249086453</v>
+        <v>9.603816374507186</v>
       </c>
       <c r="N5" t="n">
-        <v>157.9507936525244</v>
+        <v>158.2114874688105</v>
       </c>
       <c r="O5" t="n">
-        <v>12.56784761415113</v>
+        <v>12.57821479657628</v>
       </c>
       <c r="P5" t="n">
-        <v>340.6560782791227</v>
+        <v>340.6625838508489</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18151,28 +18360,28 @@
         <v>0.1013</v>
       </c>
       <c r="I6" t="n">
-        <v>1.177963251217194</v>
+        <v>1.183029504812493</v>
       </c>
       <c r="J6" t="n">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K6" t="n">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2691937015570814</v>
+        <v>0.2745334404668418</v>
       </c>
       <c r="M6" t="n">
-        <v>10.7882297148899</v>
+        <v>10.77456909061635</v>
       </c>
       <c r="N6" t="n">
-        <v>219.85670267565</v>
+        <v>218.4699979961891</v>
       </c>
       <c r="O6" t="n">
-        <v>14.82756563551988</v>
+        <v>14.78073063133853</v>
       </c>
       <c r="P6" t="n">
-        <v>339.2841924065093</v>
+        <v>339.2346174304659</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18229,28 +18438,28 @@
         <v>0.1016</v>
       </c>
       <c r="I7" t="n">
-        <v>1.209351687491637</v>
+        <v>1.211396646071295</v>
       </c>
       <c r="J7" t="n">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K7" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2557947958288846</v>
+        <v>0.2590786588811886</v>
       </c>
       <c r="M7" t="n">
-        <v>11.59381337192938</v>
+        <v>11.59824224539519</v>
       </c>
       <c r="N7" t="n">
-        <v>240.6257442102325</v>
+        <v>239.7567430334735</v>
       </c>
       <c r="O7" t="n">
-        <v>15.51211604553784</v>
+        <v>15.4840803095784</v>
       </c>
       <c r="P7" t="n">
-        <v>339.3362995095904</v>
+        <v>339.315691272953</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18307,28 +18516,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>2.785706823647065</v>
+        <v>2.885515980861256</v>
       </c>
       <c r="J8" t="n">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K8" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03017059625861629</v>
+        <v>0.03270154971715578</v>
       </c>
       <c r="M8" t="n">
-        <v>112.9874092207715</v>
+        <v>112.2049317674491</v>
       </c>
       <c r="N8" t="n">
-        <v>15275.1569898735</v>
+        <v>15170.86610977106</v>
       </c>
       <c r="O8" t="n">
-        <v>123.5927060544978</v>
+        <v>123.1700698618421</v>
       </c>
       <c r="P8" t="n">
-        <v>243.4927410693121</v>
+        <v>242.5492016925538</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18366,7 +18575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I423"/>
+  <dimension ref="A1:I428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34591,6 +34800,229 @@
         </is>
       </c>
     </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:02+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>-41.06705769300207,172.1043905367728</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>-41.066352484386755,172.10455668783231</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>-41.065687771448,172.1043804609855</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>-41.065023624980256,172.10419938841576</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>-41.064354420910114,172.1040610110031</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>-41.06369074462012,172.1038758494156</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>-41.0630313735257,172.10365423837303</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:12:42+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>-41.06704272550199,172.10451706205006</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>-41.0663510376959,172.10456891690836</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>-41.06566369242863,172.10458400247046</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>-41.06498362763586,172.10453748644917</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>-41.064319492122955,172.1043562637036</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>-41.063650210282255,172.10421848494718</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr"/>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:18:51+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>-41.0670720946842,172.10426879337797</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>-41.06637678117936,172.10435130199082</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>-41.06569287190643,172.10433734607537</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>-41.06502456842147,172.10419141338937</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>-41.06435601362244,172.10404754766097</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>-41.06368970832259,172.1038846093201</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>-41.06303226268673,172.10364672220368</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>-41.06707424611565,172.10425060633713</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>-41.066384227794465,172.10428835355316</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>-41.0657048532832,172.10423606520686</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>-41.06503490696256,172.10410402008955</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>-41.06436682872326,172.10395612626007</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>-41.06369875677715,172.10380812182288</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>-41.06301690292239,172.10377655925345</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:18:46+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>-41.067084674025885,172.10416245404778</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>-41.0663872509434,172.10426279789465</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>-41.06570228452807,172.10425777945176</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>-41.06503019878202,172.1041438191468</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>-41.06435800277185,172.1040307331804</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr"/>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0337/nzd0337.xlsx
+++ b/data/nzd0337/nzd0337.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I428"/>
+  <dimension ref="A1:I431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12731,6 +12731,101 @@
       <c r="G428" t="inlineStr"/>
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:18:36+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>425.66</v>
+      </c>
+      <c r="C429" t="n">
+        <v>399.18</v>
+      </c>
+      <c r="D429" t="n">
+        <v>384.02</v>
+      </c>
+      <c r="E429" t="n">
+        <v>393.4676470588236</v>
+      </c>
+      <c r="F429" t="n">
+        <v>353.885</v>
+      </c>
+      <c r="G429" t="inlineStr"/>
+      <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:12:58+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>402.0366666666667</v>
+      </c>
+      <c r="C430" t="n">
+        <v>392.7533333333334</v>
+      </c>
+      <c r="D430" t="n">
+        <v>380.7233333333334</v>
+      </c>
+      <c r="E430" t="n">
+        <v>376.2435294117647</v>
+      </c>
+      <c r="F430" t="n">
+        <v>370.545</v>
+      </c>
+      <c r="G430" t="n">
+        <v>368.045</v>
+      </c>
+      <c r="H430" t="n">
+        <v>378.6492307692308</v>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:12:51+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>391.2833333333333</v>
+      </c>
+      <c r="C431" t="n">
+        <v>375.3066666666667</v>
+      </c>
+      <c r="D431" t="n">
+        <v>364.0066666666667</v>
+      </c>
+      <c r="E431" t="n">
+        <v>359.5947058823529</v>
+      </c>
+      <c r="F431" t="n">
+        <v>353.5</v>
+      </c>
+      <c r="G431" t="n">
+        <v>352.25</v>
+      </c>
+      <c r="H431" t="n">
+        <v>355.8507692307692</v>
+      </c>
+      <c r="I431" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -12747,7 +12842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B512"/>
+  <dimension ref="A1:B515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17875,6 +17970,36 @@
       </c>
       <c r="B512" t="n">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -18048,28 +18173,28 @@
         <v>0.0736</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6938456361583625</v>
+        <v>0.7112311048909807</v>
       </c>
       <c r="J2" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K2" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1185740656898563</v>
+        <v>0.1239709806149011</v>
       </c>
       <c r="M2" t="n">
-        <v>12.08348892830026</v>
+        <v>12.11617396771883</v>
       </c>
       <c r="N2" t="n">
-        <v>221.1967984591639</v>
+        <v>222.2669942075899</v>
       </c>
       <c r="O2" t="n">
-        <v>14.87268632289285</v>
+        <v>14.90862147240951</v>
       </c>
       <c r="P2" t="n">
-        <v>377.0698908527988</v>
+        <v>376.904838138951</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18126,28 +18251,28 @@
         <v>0.0924</v>
       </c>
       <c r="I3" t="n">
-        <v>1.080544161880316</v>
+        <v>1.095037423785436</v>
       </c>
       <c r="J3" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K3" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2751994729361051</v>
+        <v>0.281721291215246</v>
       </c>
       <c r="M3" t="n">
-        <v>10.77675947005604</v>
+        <v>10.79395291778526</v>
       </c>
       <c r="N3" t="n">
-        <v>180.086486558073</v>
+        <v>180.1001761406631</v>
       </c>
       <c r="O3" t="n">
-        <v>13.41963064164111</v>
+        <v>13.42014069004729</v>
       </c>
       <c r="P3" t="n">
-        <v>352.2641298402884</v>
+        <v>352.119694780363</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18204,28 +18329,28 @@
         <v>0.09710000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>1.223625113637365</v>
+        <v>1.228128797025065</v>
       </c>
       <c r="J4" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K4" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3450297178409837</v>
+        <v>0.3492834453655421</v>
       </c>
       <c r="M4" t="n">
-        <v>10.00223936572872</v>
+        <v>9.993689534668269</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9830601095133</v>
+        <v>162.1940047536879</v>
       </c>
       <c r="O4" t="n">
-        <v>12.76648190025401</v>
+        <v>12.73554100749897</v>
       </c>
       <c r="P4" t="n">
-        <v>342.0723908084289</v>
+        <v>342.0272096695174</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18282,28 +18407,28 @@
         <v>0.106</v>
       </c>
       <c r="I5" t="n">
-        <v>1.201325207721047</v>
+        <v>1.209572168601535</v>
       </c>
       <c r="J5" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K5" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3404143918318541</v>
+        <v>0.344267321808301</v>
       </c>
       <c r="M5" t="n">
-        <v>9.603816374507186</v>
+        <v>9.636506444757227</v>
       </c>
       <c r="N5" t="n">
-        <v>158.2114874688105</v>
+        <v>158.7794397945001</v>
       </c>
       <c r="O5" t="n">
-        <v>12.57821479657628</v>
+        <v>12.60077139680346</v>
       </c>
       <c r="P5" t="n">
-        <v>340.6625838508489</v>
+        <v>340.5794705940888</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18360,28 +18485,28 @@
         <v>0.1013</v>
       </c>
       <c r="I6" t="n">
-        <v>1.183029504812493</v>
+        <v>1.165257695144805</v>
       </c>
       <c r="J6" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K6" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2745334404668418</v>
+        <v>0.2703857050419747</v>
       </c>
       <c r="M6" t="n">
-        <v>10.77456909061635</v>
+        <v>10.77997784822135</v>
       </c>
       <c r="N6" t="n">
-        <v>218.4699979961891</v>
+        <v>217.9448394350553</v>
       </c>
       <c r="O6" t="n">
-        <v>14.78073063133853</v>
+        <v>14.76295496962093</v>
       </c>
       <c r="P6" t="n">
-        <v>339.2346174304659</v>
+        <v>339.4091457164326</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18438,28 +18563,28 @@
         <v>0.1016</v>
       </c>
       <c r="I7" t="n">
-        <v>1.211396646071295</v>
+        <v>1.197881936910252</v>
       </c>
       <c r="J7" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K7" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2590786588811886</v>
+        <v>0.2561985672187891</v>
       </c>
       <c r="M7" t="n">
-        <v>11.59824224539519</v>
+        <v>11.59330804870029</v>
       </c>
       <c r="N7" t="n">
-        <v>239.7567430334735</v>
+        <v>239.2006612328614</v>
       </c>
       <c r="O7" t="n">
-        <v>15.4840803095784</v>
+        <v>15.46611332018686</v>
       </c>
       <c r="P7" t="n">
-        <v>339.315691272953</v>
+        <v>339.452713812241</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18516,28 +18641,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>2.885515980861256</v>
+        <v>2.936613169156554</v>
       </c>
       <c r="J8" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K8" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03270154971715578</v>
+        <v>0.0341325662702846</v>
       </c>
       <c r="M8" t="n">
-        <v>112.2049317674491</v>
+        <v>111.6446786480979</v>
       </c>
       <c r="N8" t="n">
-        <v>15170.86610977106</v>
+        <v>15092.48029545147</v>
       </c>
       <c r="O8" t="n">
-        <v>123.1700698618421</v>
+        <v>122.8514562203129</v>
       </c>
       <c r="P8" t="n">
-        <v>242.5492016925538</v>
+        <v>242.0612289093604</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18575,7 +18700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I428"/>
+  <dimension ref="A1:I431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35023,6 +35148,139 @@
         </is>
       </c>
     </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:18:36+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>-41.067100406178426,172.10402946123705</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>-41.06639516581714,172.1041958906615</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>-41.065705664712226,172.10422920601366</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>-41.06505038642019,172.1039731687191</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>-41.06432689942626,172.10429365040204</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr"/>
+      <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:12:58+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>-41.067067546066426,172.1043072448549</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>-41.06638622622638,172.10427146016565</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>-41.065701078973696,172.10426797025207</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>-41.06502642748181,172.1041756985059</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>-41.0643500739798,172.1040977559294</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>-41.063678162949074,172.1039822028693</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>-41.063024473148545,172.10371256782028</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:12:51+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>-41.06705258793177,172.10443369177597</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>-41.06636195739755,172.1044766108888</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>-41.06567782550748,172.1044645350419</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>-41.06500326844403,172.104371463563</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>-41.06432636387591,172.1042981773736</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>-41.06365619173485,172.10416792447884</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>-41.06299276035,172.10398063530187</t>
+        </is>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0337/nzd0337.xlsx
+++ b/data/nzd0337/nzd0337.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I431"/>
+  <dimension ref="A1:I432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12826,6 +12826,39 @@
         <v>355.8507692307692</v>
       </c>
       <c r="I431" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-28 22:18:40+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>424.97</v>
+      </c>
+      <c r="C432" t="n">
+        <v>385.97</v>
+      </c>
+      <c r="D432" t="n">
+        <v>374.01</v>
+      </c>
+      <c r="E432" t="n">
+        <v>353.3776470588235</v>
+      </c>
+      <c r="F432" t="n">
+        <v>351.05</v>
+      </c>
+      <c r="G432" t="n">
+        <v>344.26</v>
+      </c>
+      <c r="H432" t="n">
+        <v>358.6415384615385</v>
+      </c>
+      <c r="I432" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -12842,7 +12875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B515"/>
+  <dimension ref="A1:B517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18000,6 +18033,26 @@
       </c>
       <c r="B515" t="n">
         <v>-0.7</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2025-05-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -18173,28 +18226,28 @@
         <v>0.0736</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7112311048909807</v>
+        <v>0.726342733080357</v>
       </c>
       <c r="J2" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K2" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1239709806149011</v>
+        <v>0.1277914346029054</v>
       </c>
       <c r="M2" t="n">
-        <v>12.11617396771883</v>
+        <v>12.18713895362746</v>
       </c>
       <c r="N2" t="n">
-        <v>222.2669942075899</v>
+        <v>224.3375874284835</v>
       </c>
       <c r="O2" t="n">
-        <v>14.90862147240951</v>
+        <v>14.97790330548583</v>
       </c>
       <c r="P2" t="n">
-        <v>376.904838138951</v>
+        <v>376.7605708102669</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18251,28 +18304,28 @@
         <v>0.0924</v>
       </c>
       <c r="I3" t="n">
-        <v>1.095037423785436</v>
+        <v>1.09804894212799</v>
       </c>
       <c r="J3" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K3" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.281721291215246</v>
+        <v>0.2837734485915174</v>
       </c>
       <c r="M3" t="n">
-        <v>10.79395291778526</v>
+        <v>10.77746980945316</v>
       </c>
       <c r="N3" t="n">
-        <v>180.1001761406631</v>
+        <v>179.6123891594535</v>
       </c>
       <c r="O3" t="n">
-        <v>13.42014069004729</v>
+        <v>13.40195467681687</v>
       </c>
       <c r="P3" t="n">
-        <v>352.119694780363</v>
+        <v>352.0895341637706</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18329,28 +18382,28 @@
         <v>0.09710000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>1.228128797025065</v>
+        <v>1.228309126132994</v>
       </c>
       <c r="J4" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K4" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3492834453655421</v>
+        <v>0.3505944691130638</v>
       </c>
       <c r="M4" t="n">
-        <v>9.993689534668269</v>
+        <v>9.961473205262473</v>
       </c>
       <c r="N4" t="n">
-        <v>162.1940047536879</v>
+        <v>161.6537009028847</v>
       </c>
       <c r="O4" t="n">
-        <v>12.73554100749897</v>
+        <v>12.71431087015276</v>
       </c>
       <c r="P4" t="n">
-        <v>342.0272096695174</v>
+        <v>342.0253864359795</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18407,28 +18460,28 @@
         <v>0.106</v>
       </c>
       <c r="I5" t="n">
-        <v>1.209572168601535</v>
+        <v>1.199133262048647</v>
       </c>
       <c r="J5" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K5" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L5" t="n">
-        <v>0.344267321808301</v>
+        <v>0.3400525601620984</v>
       </c>
       <c r="M5" t="n">
-        <v>9.636506444757227</v>
+        <v>9.664779014708291</v>
       </c>
       <c r="N5" t="n">
-        <v>158.7794397945001</v>
+        <v>159.3628760043609</v>
       </c>
       <c r="O5" t="n">
-        <v>12.60077139680346</v>
+        <v>12.62390098204041</v>
       </c>
       <c r="P5" t="n">
-        <v>340.5794705940888</v>
+        <v>340.6854804753535</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18485,28 +18538,28 @@
         <v>0.1013</v>
       </c>
       <c r="I6" t="n">
-        <v>1.165257695144805</v>
+        <v>1.154780709960182</v>
       </c>
       <c r="J6" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K6" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2703857050419747</v>
+        <v>0.2669161908888603</v>
       </c>
       <c r="M6" t="n">
-        <v>10.77997784822135</v>
+        <v>10.80767000135534</v>
       </c>
       <c r="N6" t="n">
-        <v>217.9448394350553</v>
+        <v>218.3472680727108</v>
       </c>
       <c r="O6" t="n">
-        <v>14.76295496962093</v>
+        <v>14.77657836147161</v>
       </c>
       <c r="P6" t="n">
-        <v>339.4091457164326</v>
+        <v>339.5123720890365</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18563,28 +18616,28 @@
         <v>0.1016</v>
       </c>
       <c r="I7" t="n">
-        <v>1.197881936910252</v>
+        <v>1.18101118495053</v>
       </c>
       <c r="J7" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K7" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2561985672187891</v>
+        <v>0.2499866605235593</v>
       </c>
       <c r="M7" t="n">
-        <v>11.59330804870029</v>
+        <v>11.6564316591061</v>
       </c>
       <c r="N7" t="n">
-        <v>239.2006612328614</v>
+        <v>240.868966887793</v>
       </c>
       <c r="O7" t="n">
-        <v>15.46611332018686</v>
+        <v>15.5199538300793</v>
       </c>
       <c r="P7" t="n">
-        <v>339.452713812241</v>
+        <v>339.6239860204358</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18641,28 +18694,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>2.936613169156554</v>
+        <v>2.957230946540797</v>
       </c>
       <c r="J8" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K8" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0341325662702846</v>
+        <v>0.03475578295140658</v>
       </c>
       <c r="M8" t="n">
-        <v>111.6446786480979</v>
+        <v>111.3533392899973</v>
       </c>
       <c r="N8" t="n">
-        <v>15092.48029545147</v>
+        <v>15050.62569235114</v>
       </c>
       <c r="O8" t="n">
-        <v>122.8514562203129</v>
+        <v>122.6809915689922</v>
       </c>
       <c r="P8" t="n">
-        <v>242.0612289093604</v>
+        <v>241.8639196149702</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18700,7 +18753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I431"/>
+  <dimension ref="A1:I432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26219,7 +26272,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>-41.06432170388471,172.1043375679023</t>
+          <t>-41.0643217038847,172.1043375679023</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -27213,7 +27266,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>-41.064335649041894,172.10421969025947</t>
+          <t>-41.0643356490419,172.10421969025947</t>
         </is>
       </c>
       <c r="G228" t="inlineStr"/>
@@ -30486,7 +30539,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>-41.06703337769881,172.10459608152618</t>
+          <t>-41.06703337769882,172.10459608152618</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -35281,6 +35334,53 @@
         </is>
       </c>
     </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-28 22:18:40+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>-41.067099446396355,172.10403757485855</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>-41.06637679045288,172.10435122359925</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>-41.065691740533424,172.1043469097469</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>-41.064994620233776,172.10444456676527</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>-41.064322955823975,172.10432698537272</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>-41.06364507734354,172.10426187287698</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>-41.062996642360616,172.10394782106238</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0337/nzd0337.xlsx
+++ b/data/nzd0337/nzd0337.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I432"/>
+  <dimension ref="A1:I434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12861,6 +12861,48 @@
       <c r="I432" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:12:59+00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr"/>
+      <c r="C433" t="inlineStr"/>
+      <c r="D433" t="inlineStr"/>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" t="inlineStr"/>
+      <c r="G433" t="inlineStr"/>
+      <c r="H433" t="n">
+        <v>90.12846153846154</v>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:18:50+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr"/>
+      <c r="C434" t="inlineStr"/>
+      <c r="D434" t="inlineStr"/>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr"/>
+      <c r="G434" t="inlineStr"/>
+      <c r="H434" t="n">
+        <v>91.6146153846154</v>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -12875,7 +12917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B517"/>
+  <dimension ref="A1:B518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18053,6 +18095,16 @@
       </c>
       <c r="B517" t="n">
         <v>0.23</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>-0.04</v>
       </c>
     </row>
   </sheetData>
@@ -18229,7 +18281,7 @@
         <v>0.726342733080357</v>
       </c>
       <c r="J2" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K2" t="n">
         <v>316</v>
@@ -18307,7 +18359,7 @@
         <v>1.09804894212799</v>
       </c>
       <c r="J3" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K3" t="n">
         <v>305</v>
@@ -18385,7 +18437,7 @@
         <v>1.228309126132994</v>
       </c>
       <c r="J4" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K4" t="n">
         <v>300</v>
@@ -18463,7 +18515,7 @@
         <v>1.199133262048647</v>
       </c>
       <c r="J5" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K5" t="n">
         <v>302</v>
@@ -18541,7 +18593,7 @@
         <v>1.154780709960182</v>
       </c>
       <c r="J6" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K6" t="n">
         <v>292</v>
@@ -18619,7 +18671,7 @@
         <v>1.18101118495053</v>
       </c>
       <c r="J7" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K7" t="n">
         <v>260</v>
@@ -18694,28 +18746,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>2.957230946540797</v>
+        <v>2.730288163874613</v>
       </c>
       <c r="J8" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K8" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03475578295140658</v>
+        <v>0.02947063523707116</v>
       </c>
       <c r="M8" t="n">
-        <v>111.3533392899973</v>
+        <v>112.8215772239497</v>
       </c>
       <c r="N8" t="n">
-        <v>15050.62569235114</v>
+        <v>15272.42478129252</v>
       </c>
       <c r="O8" t="n">
-        <v>122.6809915689922</v>
+        <v>123.5816522841984</v>
       </c>
       <c r="P8" t="n">
-        <v>241.8639196149702</v>
+        <v>244.0435234201004</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18753,7 +18805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I432"/>
+  <dimension ref="A1:I434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35381,6 +35433,52 @@
         </is>
       </c>
     </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:12:59+00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr"/>
+      <c r="C433" t="inlineStr"/>
+      <c r="D433" t="inlineStr"/>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" t="inlineStr"/>
+      <c r="G433" t="inlineStr"/>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>-41.0626230928031,172.1071050169592</t>
+        </is>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:18:50+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr"/>
+      <c r="C434" t="inlineStr"/>
+      <c r="D434" t="inlineStr"/>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr"/>
+      <c r="G434" t="inlineStr"/>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>-41.06262516054719,172.10708754275052</t>
+        </is>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0337/nzd0337.xlsx
+++ b/data/nzd0337/nzd0337.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I434"/>
+  <dimension ref="A1:I438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12901,6 +12901,100 @@
         <v>91.6146153846154</v>
       </c>
       <c r="I434" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:12:43+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr"/>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="inlineStr"/>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" t="inlineStr"/>
+      <c r="G435" t="inlineStr"/>
+      <c r="H435" t="n">
+        <v>72.59153846153846</v>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:18:55+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr"/>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="inlineStr"/>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="inlineStr"/>
+      <c r="G436" t="inlineStr"/>
+      <c r="H436" t="n">
+        <v>100.6053846153846</v>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:13:12+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>390.25</v>
+      </c>
+      <c r="C437" t="n">
+        <v>379.69</v>
+      </c>
+      <c r="D437" t="n">
+        <v>362.65</v>
+      </c>
+      <c r="E437" t="n">
+        <v>350.5329411764706</v>
+      </c>
+      <c r="F437" t="n">
+        <v>346.405</v>
+      </c>
+      <c r="G437" t="n">
+        <v>340.015</v>
+      </c>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:03+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr"/>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr"/>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" t="inlineStr"/>
+      <c r="G438" t="inlineStr"/>
+      <c r="H438" t="n">
+        <v>108.6392307692308</v>
+      </c>
+      <c r="I438" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12917,7 +13011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B518"/>
+  <dimension ref="A1:B522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18105,6 +18199,46 @@
       </c>
       <c r="B518" t="n">
         <v>-0.04</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>-0.99</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>
@@ -18278,28 +18412,28 @@
         <v>0.0736</v>
       </c>
       <c r="I2" t="n">
-        <v>0.726342733080357</v>
+        <v>0.7236185771786671</v>
       </c>
       <c r="J2" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K2" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1277914346029054</v>
+        <v>0.1274886762848773</v>
       </c>
       <c r="M2" t="n">
-        <v>12.18713895362746</v>
+        <v>12.16264770159832</v>
       </c>
       <c r="N2" t="n">
-        <v>224.3375874284835</v>
+        <v>223.7188651088087</v>
       </c>
       <c r="O2" t="n">
-        <v>14.97790330548583</v>
+        <v>14.9572345408103</v>
       </c>
       <c r="P2" t="n">
-        <v>376.7605708102669</v>
+        <v>376.7868020758368</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18356,28 +18490,28 @@
         <v>0.0924</v>
       </c>
       <c r="I3" t="n">
-        <v>1.09804894212799</v>
+        <v>1.097588904059251</v>
       </c>
       <c r="J3" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K3" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2837734485915174</v>
+        <v>0.2846746818868128</v>
       </c>
       <c r="M3" t="n">
-        <v>10.77746980945316</v>
+        <v>10.74494402406986</v>
       </c>
       <c r="N3" t="n">
-        <v>179.6123891594535</v>
+        <v>179.0277842510486</v>
       </c>
       <c r="O3" t="n">
-        <v>13.40195467681687</v>
+        <v>13.38012646618292</v>
       </c>
       <c r="P3" t="n">
-        <v>352.0895341637706</v>
+        <v>352.0941801030659</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18434,28 +18568,28 @@
         <v>0.09710000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>1.228309126132994</v>
+        <v>1.222005642209829</v>
       </c>
       <c r="J4" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K4" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3505944691130638</v>
+        <v>0.3489348544945258</v>
       </c>
       <c r="M4" t="n">
-        <v>9.961473205262473</v>
+        <v>9.964704874781217</v>
       </c>
       <c r="N4" t="n">
-        <v>161.6537009028847</v>
+        <v>161.5301089845174</v>
       </c>
       <c r="O4" t="n">
-        <v>12.71431087015276</v>
+        <v>12.70944959408225</v>
       </c>
       <c r="P4" t="n">
-        <v>342.0253864359795</v>
+        <v>342.0896296132337</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18512,28 +18646,28 @@
         <v>0.106</v>
       </c>
       <c r="I5" t="n">
-        <v>1.199133262048647</v>
+        <v>1.187024503801576</v>
       </c>
       <c r="J5" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K5" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3400525601620984</v>
+        <v>0.3347197029095689</v>
       </c>
       <c r="M5" t="n">
-        <v>9.664779014708291</v>
+        <v>9.704022045896672</v>
       </c>
       <c r="N5" t="n">
-        <v>159.3628760043609</v>
+        <v>160.3106484623121</v>
       </c>
       <c r="O5" t="n">
-        <v>12.62390098204041</v>
+        <v>12.66138414480471</v>
       </c>
       <c r="P5" t="n">
-        <v>340.6854804753535</v>
+        <v>340.8094024108196</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18590,28 +18724,28 @@
         <v>0.1013</v>
       </c>
       <c r="I6" t="n">
-        <v>1.154780709960182</v>
+        <v>1.14160950289826</v>
       </c>
       <c r="J6" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K6" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2669161908888603</v>
+        <v>0.2619773639454933</v>
       </c>
       <c r="M6" t="n">
-        <v>10.80767000135534</v>
+        <v>10.85092399818246</v>
       </c>
       <c r="N6" t="n">
-        <v>218.3472680727108</v>
+        <v>219.3960103629822</v>
       </c>
       <c r="O6" t="n">
-        <v>14.77657836147161</v>
+        <v>14.81202249400743</v>
       </c>
       <c r="P6" t="n">
-        <v>339.5123720890365</v>
+        <v>339.6432014946422</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18668,28 +18802,28 @@
         <v>0.1016</v>
       </c>
       <c r="I7" t="n">
-        <v>1.18101118495053</v>
+        <v>1.161392778950024</v>
       </c>
       <c r="J7" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K7" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2499866605235593</v>
+        <v>0.242299232763394</v>
       </c>
       <c r="M7" t="n">
-        <v>11.6564316591061</v>
+        <v>11.73710741175841</v>
       </c>
       <c r="N7" t="n">
-        <v>240.868966887793</v>
+        <v>243.4079996512872</v>
       </c>
       <c r="O7" t="n">
-        <v>15.5199538300793</v>
+        <v>15.60153837450933</v>
       </c>
       <c r="P7" t="n">
-        <v>339.6239860204358</v>
+        <v>339.8247459996734</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18746,28 +18880,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>2.730288163874613</v>
+        <v>2.405706257571949</v>
       </c>
       <c r="J8" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K8" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02947063523707116</v>
+        <v>0.02272502240919405</v>
       </c>
       <c r="M8" t="n">
-        <v>112.8215772239497</v>
+        <v>114.8249874580437</v>
       </c>
       <c r="N8" t="n">
-        <v>15272.42478129252</v>
+        <v>15572.00552347978</v>
       </c>
       <c r="O8" t="n">
-        <v>123.5816522841984</v>
+        <v>124.787842049936</v>
       </c>
       <c r="P8" t="n">
-        <v>244.0435234201004</v>
+        <v>247.1728533695887</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18805,7 +18939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I434"/>
+  <dimension ref="A1:I438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35479,6 +35613,118 @@
         </is>
       </c>
     </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:12:43+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr"/>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="inlineStr"/>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" t="inlineStr"/>
+      <c r="G435" t="inlineStr"/>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>-41.06259869279376,172.10731121616007</t>
+        </is>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:18:55+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr"/>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="inlineStr"/>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="inlineStr"/>
+      <c r="G436" t="inlineStr"/>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>-41.062637669699974,172.10698182919253</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:13:12+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>-41.06705115053392,172.10444584259315</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>-41.06636805477823,172.10442506844902</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>-41.06567593832206,172.1044804875524</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>-41.06499066310358,172.1044780161949</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>-41.064316494415856,172.10438160297957</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>-41.063639172357156,172.1043117866256</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:03+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr"/>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr"/>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" t="inlineStr"/>
+      <c r="G438" t="inlineStr"/>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>-41.06264884737182,172.10688736711356</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0337/nzd0337.xlsx
+++ b/data/nzd0337/nzd0337.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I438"/>
+  <dimension ref="A1:I444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12995,6 +12995,144 @@
         <v>108.6392307692308</v>
       </c>
       <c r="I438" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:12:53+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr"/>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="inlineStr"/>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr"/>
+      <c r="G439" t="inlineStr"/>
+      <c r="H439" t="n">
+        <v>116.3915384615385</v>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:19:05+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>394.21</v>
+      </c>
+      <c r="C440" t="inlineStr"/>
+      <c r="D440" t="inlineStr"/>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" t="inlineStr"/>
+      <c r="G440" t="inlineStr"/>
+      <c r="H440" t="n">
+        <v>74.33846153846153</v>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:12:54+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr"/>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="inlineStr"/>
+      <c r="E441" t="inlineStr"/>
+      <c r="F441" t="inlineStr"/>
+      <c r="G441" t="inlineStr"/>
+      <c r="H441" t="n">
+        <v>76.20615384615385</v>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr"/>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="inlineStr"/>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr"/>
+      <c r="G442" t="inlineStr"/>
+      <c r="H442" t="n">
+        <v>112.3769230769231</v>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:13:01+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr"/>
+      <c r="C443" t="inlineStr"/>
+      <c r="D443" t="inlineStr"/>
+      <c r="E443" t="inlineStr"/>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="inlineStr"/>
+      <c r="H443" t="n">
+        <v>111.8884615384615</v>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>407.81</v>
+      </c>
+      <c r="C444" t="n">
+        <v>400.47</v>
+      </c>
+      <c r="D444" t="n">
+        <v>385.73</v>
+      </c>
+      <c r="E444" t="n">
+        <v>379.2876470588236</v>
+      </c>
+      <c r="F444" t="n">
+        <v>373.89</v>
+      </c>
+      <c r="G444" t="inlineStr"/>
+      <c r="H444" t="n">
+        <v>112.2615384615385</v>
+      </c>
+      <c r="I444" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13011,7 +13149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B522"/>
+  <dimension ref="A1:B528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18239,6 +18377,66 @@
       </c>
       <c r="B522" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -18412,28 +18610,28 @@
         <v>0.0736</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7236185771786671</v>
+        <v>0.7291246005276791</v>
       </c>
       <c r="J2" t="n">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="K2" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1274886762848773</v>
+        <v>0.130115916955702</v>
       </c>
       <c r="M2" t="n">
-        <v>12.16264770159832</v>
+        <v>12.13462477256483</v>
       </c>
       <c r="N2" t="n">
-        <v>223.7188651088087</v>
+        <v>222.7851113746378</v>
       </c>
       <c r="O2" t="n">
-        <v>14.9572345408103</v>
+        <v>14.92598778555837</v>
       </c>
       <c r="P2" t="n">
-        <v>376.7868020758368</v>
+        <v>376.7333990725292</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18490,28 +18688,28 @@
         <v>0.0924</v>
       </c>
       <c r="I3" t="n">
-        <v>1.097588904059251</v>
+        <v>1.108286696679713</v>
       </c>
       <c r="J3" t="n">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="K3" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2846746818868128</v>
+        <v>0.2882827771825697</v>
       </c>
       <c r="M3" t="n">
-        <v>10.74494402406986</v>
+        <v>10.77617095564518</v>
       </c>
       <c r="N3" t="n">
-        <v>179.0277842510486</v>
+        <v>179.7127474136267</v>
       </c>
       <c r="O3" t="n">
-        <v>13.38012646618292</v>
+        <v>13.40569831876082</v>
       </c>
       <c r="P3" t="n">
-        <v>352.0941801030659</v>
+        <v>351.9854394410632</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18568,28 +18766,28 @@
         <v>0.09710000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>1.222005642209829</v>
+        <v>1.22868044947055</v>
       </c>
       <c r="J4" t="n">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="K4" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3489348544945258</v>
+        <v>0.3520417209045708</v>
       </c>
       <c r="M4" t="n">
-        <v>9.964704874781217</v>
+        <v>9.971547134710653</v>
       </c>
       <c r="N4" t="n">
-        <v>161.5301089845174</v>
+        <v>161.4555506766569</v>
       </c>
       <c r="O4" t="n">
-        <v>12.70944959408225</v>
+        <v>12.70651607155387</v>
       </c>
       <c r="P4" t="n">
-        <v>342.0896296132337</v>
+        <v>342.021177837449</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18646,28 +18844,28 @@
         <v>0.106</v>
       </c>
       <c r="I5" t="n">
-        <v>1.187024503801576</v>
+        <v>1.191362343051486</v>
       </c>
       <c r="J5" t="n">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="K5" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3347197029095689</v>
+        <v>0.3373640077838042</v>
       </c>
       <c r="M5" t="n">
-        <v>9.704022045896672</v>
+        <v>9.696224460945901</v>
       </c>
       <c r="N5" t="n">
-        <v>160.3106484623121</v>
+        <v>159.9711694097421</v>
       </c>
       <c r="O5" t="n">
-        <v>12.66138414480471</v>
+        <v>12.64797096018733</v>
       </c>
       <c r="P5" t="n">
-        <v>340.8094024108196</v>
+        <v>340.7647406972329</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18724,28 +18922,28 @@
         <v>0.1013</v>
       </c>
       <c r="I6" t="n">
-        <v>1.14160950289826</v>
+        <v>1.144210236048953</v>
       </c>
       <c r="J6" t="n">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="K6" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2619773639454933</v>
+        <v>0.2639241608043629</v>
       </c>
       <c r="M6" t="n">
-        <v>10.85092399818246</v>
+        <v>10.8288869987785</v>
       </c>
       <c r="N6" t="n">
-        <v>219.3960103629822</v>
+        <v>218.7192757717081</v>
       </c>
       <c r="O6" t="n">
-        <v>14.81202249400743</v>
+        <v>14.78916075278473</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6432014946422</v>
+        <v>339.6172046725917</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18805,7 +19003,7 @@
         <v>1.161392778950024</v>
       </c>
       <c r="J7" t="n">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="K7" t="n">
         <v>261</v>
@@ -18880,28 +19078,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>2.405706257571949</v>
+        <v>1.814956396671761</v>
       </c>
       <c r="J8" t="n">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="K8" t="n">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02272502240919405</v>
+        <v>0.01281207585188293</v>
       </c>
       <c r="M8" t="n">
-        <v>114.8249874580437</v>
+        <v>118.149861551491</v>
       </c>
       <c r="N8" t="n">
-        <v>15572.00552347978</v>
+        <v>16050.03034927975</v>
       </c>
       <c r="O8" t="n">
-        <v>124.787842049936</v>
+        <v>126.6887143721956</v>
       </c>
       <c r="P8" t="n">
-        <v>247.1728533695887</v>
+        <v>252.8956177701014</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18939,7 +19137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I438"/>
+  <dimension ref="A1:I444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35725,6 +35923,168 @@
         </is>
       </c>
     </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:12:53+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr"/>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="inlineStr"/>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr"/>
+      <c r="G439" t="inlineStr"/>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>-41.06265963325907,172.10679621533882</t>
+        </is>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:19:05+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>-41.0670566590064,172.1043992775233</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr"/>
+      <c r="D440" t="inlineStr"/>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" t="inlineStr"/>
+      <c r="G440" t="inlineStr"/>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>-41.062601123392945,172.10729067583918</t>
+        </is>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:12:54+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr"/>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="inlineStr"/>
+      <c r="E441" t="inlineStr"/>
+      <c r="F441" t="inlineStr"/>
+      <c r="G441" t="inlineStr"/>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>-41.06260372202156,172.1072687155121</t>
+        </is>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr"/>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="inlineStr"/>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr"/>
+      <c r="G442" t="inlineStr"/>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>-41.06265404768113,172.10684341926301</t>
+        </is>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:13:01+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr"/>
+      <c r="C443" t="inlineStr"/>
+      <c r="D443" t="inlineStr"/>
+      <c r="E443" t="inlineStr"/>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="inlineStr"/>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>-41.062653368077974,172.1068491626026</t>
+        </is>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>-41.067075576848744,172.10423935702468</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>-41.06639696022069,172.10418072188415</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>-41.065708043356054,172.10420909877774</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>-41.06503066190918,172.10413990425891</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>-41.06435472693357,172.10405842416012</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr"/>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>-41.06265388714497,172.10684477595743</t>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0337/nzd0337.xlsx
+++ b/data/nzd0337/nzd0337.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I444"/>
+  <dimension ref="A1:I446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13133,6 +13133,68 @@
         <v>112.2615384615385</v>
       </c>
       <c r="I444" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:03+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>405.0533333333333</v>
+      </c>
+      <c r="C445" t="n">
+        <v>387.9466666666667</v>
+      </c>
+      <c r="D445" t="n">
+        <v>384.6266666666667</v>
+      </c>
+      <c r="E445" t="n">
+        <v>375.8058823529412</v>
+      </c>
+      <c r="F445" t="n">
+        <v>365.51</v>
+      </c>
+      <c r="G445" t="inlineStr"/>
+      <c r="H445" t="n">
+        <v>122.6046153846154</v>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:13+00:00</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>391.8666666666667</v>
+      </c>
+      <c r="C446" t="n">
+        <v>381.6533333333333</v>
+      </c>
+      <c r="D446" t="n">
+        <v>365.8233333333333</v>
+      </c>
+      <c r="E446" t="n">
+        <v>359.9311764705882</v>
+      </c>
+      <c r="F446" t="n">
+        <v>361.13</v>
+      </c>
+      <c r="G446" t="n">
+        <v>361.81</v>
+      </c>
+      <c r="H446" t="inlineStr"/>
+      <c r="I446" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13149,7 +13211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B528"/>
+  <dimension ref="A1:B530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18437,6 +18499,26 @@
       </c>
       <c r="B528" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
@@ -18610,28 +18692,28 @@
         <v>0.0736</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7291246005276791</v>
+        <v>0.7318377591423436</v>
       </c>
       <c r="J2" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K2" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L2" t="n">
-        <v>0.130115916955702</v>
+        <v>0.1319668037250648</v>
       </c>
       <c r="M2" t="n">
-        <v>12.13462477256483</v>
+        <v>12.10306706401816</v>
       </c>
       <c r="N2" t="n">
-        <v>222.7851113746378</v>
+        <v>221.7154978456869</v>
       </c>
       <c r="O2" t="n">
-        <v>14.92598778555837</v>
+        <v>14.8901140978062</v>
       </c>
       <c r="P2" t="n">
-        <v>376.7333990725292</v>
+        <v>376.707172954667</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18688,28 +18770,28 @@
         <v>0.0924</v>
       </c>
       <c r="I3" t="n">
-        <v>1.108286696679713</v>
+        <v>1.11246933114332</v>
       </c>
       <c r="J3" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K3" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2882827771825697</v>
+        <v>0.2918187330159255</v>
       </c>
       <c r="M3" t="n">
-        <v>10.77617095564518</v>
+        <v>10.73249107016638</v>
       </c>
       <c r="N3" t="n">
-        <v>179.7127474136267</v>
+        <v>178.7137654881487</v>
       </c>
       <c r="O3" t="n">
-        <v>13.40569831876082</v>
+        <v>13.36838679452943</v>
       </c>
       <c r="P3" t="n">
-        <v>351.9854394410632</v>
+        <v>351.9429018958675</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18766,28 +18848,28 @@
         <v>0.09710000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>1.22868044947055</v>
+        <v>1.229967150269982</v>
       </c>
       <c r="J4" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K4" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3520417209045708</v>
+        <v>0.3542070841108879</v>
       </c>
       <c r="M4" t="n">
-        <v>9.971547134710653</v>
+        <v>9.968220074753321</v>
       </c>
       <c r="N4" t="n">
-        <v>161.4555506766569</v>
+        <v>160.9890150705073</v>
       </c>
       <c r="O4" t="n">
-        <v>12.70651607155387</v>
+        <v>12.68814466620346</v>
       </c>
       <c r="P4" t="n">
-        <v>342.021177837449</v>
+        <v>342.0081622755889</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18844,28 +18926,28 @@
         <v>0.106</v>
       </c>
       <c r="I5" t="n">
-        <v>1.191362343051486</v>
+        <v>1.186895533302115</v>
       </c>
       <c r="J5" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K5" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3373640077838042</v>
+        <v>0.3374944857453842</v>
       </c>
       <c r="M5" t="n">
-        <v>9.696224460945901</v>
+        <v>9.685843742337065</v>
       </c>
       <c r="N5" t="n">
-        <v>159.9711694097421</v>
+        <v>159.4410234395036</v>
       </c>
       <c r="O5" t="n">
-        <v>12.64797096018733</v>
+        <v>12.62699582004776</v>
       </c>
       <c r="P5" t="n">
-        <v>340.7647406972329</v>
+        <v>340.8109940990908</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18922,28 +19004,28 @@
         <v>0.1013</v>
       </c>
       <c r="I6" t="n">
-        <v>1.144210236048953</v>
+        <v>1.137305551054588</v>
       </c>
       <c r="J6" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K6" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2639241608043629</v>
+        <v>0.2635529030335412</v>
       </c>
       <c r="M6" t="n">
-        <v>10.8288869987785</v>
+        <v>10.7977715067791</v>
       </c>
       <c r="N6" t="n">
-        <v>218.7192757717081</v>
+        <v>217.522714375895</v>
       </c>
       <c r="O6" t="n">
-        <v>14.78916075278473</v>
+        <v>14.74865127311291</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6172046725917</v>
+        <v>339.6864170369961</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19000,28 +19082,28 @@
         <v>0.1016</v>
       </c>
       <c r="I7" t="n">
-        <v>1.161392778950024</v>
+        <v>1.155953975385826</v>
       </c>
       <c r="J7" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K7" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L7" t="n">
-        <v>0.242299232763394</v>
+        <v>0.2415782942779393</v>
       </c>
       <c r="M7" t="n">
-        <v>11.73710741175841</v>
+        <v>11.72690659939222</v>
       </c>
       <c r="N7" t="n">
-        <v>243.4079996512872</v>
+        <v>242.740088481398</v>
       </c>
       <c r="O7" t="n">
-        <v>15.60153837450933</v>
+        <v>15.58011837186733</v>
       </c>
       <c r="P7" t="n">
-        <v>339.8247459996734</v>
+        <v>339.880967476571</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19078,28 +19160,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>1.814956396671761</v>
+        <v>1.731550389579323</v>
       </c>
       <c r="J8" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K8" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01281207585188293</v>
+        <v>0.0116615121186725</v>
       </c>
       <c r="M8" t="n">
-        <v>118.149861551491</v>
+        <v>118.5514399185755</v>
       </c>
       <c r="N8" t="n">
-        <v>16050.03034927975</v>
+        <v>16095.7441554063</v>
       </c>
       <c r="O8" t="n">
-        <v>126.6887143721956</v>
+        <v>126.8690039190278</v>
       </c>
       <c r="P8" t="n">
-        <v>252.8956177701014</v>
+        <v>253.7064516940639</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19137,7 +19219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I444"/>
+  <dimension ref="A1:I446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36085,6 +36167,92 @@
         </is>
       </c>
     </row>
+    <row r="445">
+      <c r="A445" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:03+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>-41.0670717422943,172.1042717722897</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>-41.06637954004764,172.10432798049777</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>-41.06570650859796,172.10422207245253</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>-41.065025818705244,172.104180844577</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>-41.064343070180925,172.1041569593448</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr"/>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>-41.0626682775421,172.10672316184684</t>
+        </is>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:13+00:00</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>-41.067053399365456,172.10442683244347</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>-41.06637078584087,172.10440198213655</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>-41.06568035257047,172.10444317357064</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>-41.065003736488535,172.1043675071776</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>-41.06433697747699,172.1042084610152</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>-41.06366948995425,172.10405551559225</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr"/>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0337/nzd0337.xlsx
+++ b/data/nzd0337/nzd0337.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I446"/>
+  <dimension ref="A1:I448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13193,8 +13193,76 @@
       <c r="G446" t="n">
         <v>361.81</v>
       </c>
-      <c r="H446" t="inlineStr"/>
+      <c r="H446" t="n">
+        <v>356.7423076923077</v>
+      </c>
       <c r="I446" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:13:38+00:00</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>377.3666666666667</v>
+      </c>
+      <c r="C447" t="n">
+        <v>368.8533333333334</v>
+      </c>
+      <c r="D447" t="n">
+        <v>361.1833333333333</v>
+      </c>
+      <c r="E447" t="n">
+        <v>353.27</v>
+      </c>
+      <c r="F447" t="n">
+        <v>349.845</v>
+      </c>
+      <c r="G447" t="n">
+        <v>345.545</v>
+      </c>
+      <c r="H447" t="n">
+        <v>334.4846153846154</v>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:13:41+00:00</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>388.9566666666667</v>
+      </c>
+      <c r="C448" t="n">
+        <v>370.1833333333333</v>
+      </c>
+      <c r="D448" t="n">
+        <v>368.9233333333333</v>
+      </c>
+      <c r="E448" t="n">
+        <v>350.9158823529411</v>
+      </c>
+      <c r="F448" t="n">
+        <v>346.355</v>
+      </c>
+      <c r="G448" t="n">
+        <v>346.775</v>
+      </c>
+      <c r="H448" t="n">
+        <v>341.02</v>
+      </c>
+      <c r="I448" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13211,7 +13279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B530"/>
+  <dimension ref="A1:B532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18519,6 +18587,26 @@
       </c>
       <c r="B530" t="n">
         <v>0.76</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>
@@ -19219,7 +19307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I446"/>
+  <dimension ref="A1:I448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36246,8 +36334,106 @@
           <t>-41.06366948995425,172.10405551559225</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr"/>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>-41.06299400049719,172.1039701524733</t>
+        </is>
+      </c>
       <c r="I446" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:13:38+00:00</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>-41.06703322932056,172.10459733580342</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>-41.06635298052724,172.10455249388622</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>-41.06567389811912,172.10449773350877</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>-41.06499447049143,172.10444583253158</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>-41.064321279616166,172.1043411542039</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>-41.06364686483219,172.10424676353088</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>-41.06296303933149,172.10423186128654</t>
+        </is>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:13:41+00:00</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>-41.06704935146642,172.104461050712</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>-41.0663548306198,172.10453685477836</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>-41.06568466479721,172.10440672188219</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>-41.064991195794754,172.10447351338726</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>-41.06431642486341,172.10438219089778</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>-41.06364857581167,172.1042323008876</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>-41.062972130323566,172.10415501741676</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0337/nzd0337.xlsx
+++ b/data/nzd0337/nzd0337.xlsx
@@ -18780,28 +18780,28 @@
         <v>0.0736</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7318377591423436</v>
+        <v>0.7192776466023254</v>
       </c>
       <c r="J2" t="n">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K2" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1319668037250648</v>
+        <v>0.128588426272062</v>
       </c>
       <c r="M2" t="n">
-        <v>12.10306706401816</v>
+        <v>12.09232890209479</v>
       </c>
       <c r="N2" t="n">
-        <v>221.7154978456869</v>
+        <v>221.5266976437637</v>
       </c>
       <c r="O2" t="n">
-        <v>14.8901140978062</v>
+        <v>14.88377296399551</v>
       </c>
       <c r="P2" t="n">
-        <v>376.707172954667</v>
+        <v>376.8296664594926</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18858,28 +18858,28 @@
         <v>0.0924</v>
       </c>
       <c r="I3" t="n">
-        <v>1.11246933114332</v>
+        <v>1.100360138129469</v>
       </c>
       <c r="J3" t="n">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K3" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2918187330159255</v>
+        <v>0.2884946576180717</v>
       </c>
       <c r="M3" t="n">
-        <v>10.73249107016638</v>
+        <v>10.73508387166364</v>
       </c>
       <c r="N3" t="n">
-        <v>178.7137654881487</v>
+        <v>178.4011696799325</v>
       </c>
       <c r="O3" t="n">
-        <v>13.36838679452943</v>
+        <v>13.35669007201756</v>
       </c>
       <c r="P3" t="n">
-        <v>351.9429018958675</v>
+        <v>352.0667385397566</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18936,28 +18936,28 @@
         <v>0.09710000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>1.229967150269982</v>
+        <v>1.219985247054207</v>
       </c>
       <c r="J4" t="n">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K4" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3542070841108879</v>
+        <v>0.3520967023135489</v>
       </c>
       <c r="M4" t="n">
-        <v>9.968220074753321</v>
+        <v>9.960547154482423</v>
       </c>
       <c r="N4" t="n">
-        <v>160.9890150705073</v>
+        <v>160.5639606243937</v>
       </c>
       <c r="O4" t="n">
-        <v>12.68814466620346</v>
+        <v>12.67138353236906</v>
       </c>
       <c r="P4" t="n">
-        <v>342.0081622755889</v>
+        <v>342.1111025607509</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19014,28 +19014,28 @@
         <v>0.106</v>
       </c>
       <c r="I5" t="n">
-        <v>1.186895533302115</v>
+        <v>1.164921373546574</v>
       </c>
       <c r="J5" t="n">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K5" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3374944857453842</v>
+        <v>0.3282200808775592</v>
       </c>
       <c r="M5" t="n">
-        <v>9.685843742337065</v>
+        <v>9.756061389383978</v>
       </c>
       <c r="N5" t="n">
-        <v>159.4410234395036</v>
+        <v>160.8961981088906</v>
       </c>
       <c r="O5" t="n">
-        <v>12.62699582004776</v>
+        <v>12.68448651341041</v>
       </c>
       <c r="P5" t="n">
-        <v>340.8109940990908</v>
+        <v>341.0385324978637</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19092,28 +19092,28 @@
         <v>0.1013</v>
       </c>
       <c r="I6" t="n">
-        <v>1.137305551054588</v>
+        <v>1.113547401925363</v>
       </c>
       <c r="J6" t="n">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K6" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2635529030335412</v>
+        <v>0.254968328531604</v>
       </c>
       <c r="M6" t="n">
-        <v>10.7977715067791</v>
+        <v>10.86876332851623</v>
       </c>
       <c r="N6" t="n">
-        <v>217.522714375895</v>
+        <v>219.0724543560672</v>
       </c>
       <c r="O6" t="n">
-        <v>14.74865127311291</v>
+        <v>14.80109639033768</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6864170369961</v>
+        <v>339.9253353871358</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19170,28 +19170,28 @@
         <v>0.1016</v>
       </c>
       <c r="I7" t="n">
-        <v>1.155953975385826</v>
+        <v>1.125197552725731</v>
       </c>
       <c r="J7" t="n">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K7" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2415782942779393</v>
+        <v>0.2310159840266167</v>
       </c>
       <c r="M7" t="n">
-        <v>11.72690659939222</v>
+        <v>11.83344414480923</v>
       </c>
       <c r="N7" t="n">
-        <v>242.740088481398</v>
+        <v>245.1494061485009</v>
       </c>
       <c r="O7" t="n">
-        <v>15.58011837186733</v>
+        <v>15.6572477194589</v>
       </c>
       <c r="P7" t="n">
-        <v>339.880967476571</v>
+        <v>340.1994872957711</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19248,28 +19248,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>1.731550389579323</v>
+        <v>1.794297456163741</v>
       </c>
       <c r="J8" t="n">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K8" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0116615121186725</v>
+        <v>0.01267069732981918</v>
       </c>
       <c r="M8" t="n">
-        <v>118.5514399185755</v>
+        <v>117.7216066145777</v>
       </c>
       <c r="N8" t="n">
-        <v>16095.7441554063</v>
+        <v>15970.61355183378</v>
       </c>
       <c r="O8" t="n">
-        <v>126.8690039190278</v>
+        <v>126.3748928855482</v>
       </c>
       <c r="P8" t="n">
-        <v>253.7064516940639</v>
+        <v>253.0930437228497</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">

--- a/data/nzd0337/nzd0337.xlsx
+++ b/data/nzd0337/nzd0337.xlsx
@@ -18774,10 +18774,10 @@
         <v>0.06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0543</v>
+        <v>0.051</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0736</v>
+        <v>0.0786</v>
       </c>
       <c r="I2" t="n">
         <v>0.7192711857133463</v>
@@ -18849,13 +18849,13 @@
         <v>0.8333333333351894</v>
       </c>
       <c r="F3" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0649</v>
+        <v>0.0574</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0924</v>
+        <v>0.1535</v>
       </c>
       <c r="I3" t="n">
         <v>1.100370693394448</v>
@@ -18927,13 +18927,13 @@
         <v>0.6666666666678452</v>
       </c>
       <c r="F4" t="n">
-        <v>0.075</v>
+        <v>0.145</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06419999999999999</v>
+        <v>0.0896</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09710000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>1.219985003707844</v>
@@ -19005,13 +19005,13 @@
         <v>0.5000000000005009</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0745</v>
+        <v>0.1291</v>
       </c>
       <c r="H5" t="n">
-        <v>0.106</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>1.164922005635538</v>
@@ -19083,13 +19083,13 @@
         <v>0.3333333333346886</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08</v>
+        <v>0.105</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06859999999999999</v>
+        <v>0.0716</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1013</v>
+        <v>0.1859</v>
       </c>
       <c r="I6" t="n">
         <v>1.113529459007943</v>
@@ -19161,13 +19161,13 @@
         <v>0.1666666666663423</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08</v>
+        <v>0.125</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0694</v>
+        <v>0.08169999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1016</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>1.125234407149375</v>
@@ -19242,10 +19242,10 @@
         <v>0.065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0572</v>
+        <v>0.0419</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08069999999999999</v>
+        <v>0.147</v>
       </c>
       <c r="I8" t="n">
         <v>1.794304498067635</v>
